--- a/YuziApi/yuziapi/template/头程账单模板.xlsx
+++ b/YuziApi/yuziapi/template/头程账单模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zhaoyu\zhaoyuCode\YuZiApi\YuziApi\yuziapi\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE43AB7-8E07-472E-B60F-79D6702FA202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4D8563-D9C7-4666-B574-F1BD15C3F182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{8587944C-2598-40F2-989B-4827AB14D7EB}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>物流仓储费用明细单</t>
   </si>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>元</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进客服：</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -475,9 +479,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -501,26 +502,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -587,7 +579,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -831,9 +838,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>682625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>752475</xdr:rowOff>
+      <xdr:rowOff>758825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1163,7 +1170,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="B5" sqref="B5:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1174,8 +1181,8 @@
     <col min="4" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
     <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.77734375" customWidth="1"/>
     <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -1184,116 +1191,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
     </row>
     <row r="3" spans="1:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
     </row>
     <row r="4" spans="1:16" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34" t="s">
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="36"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="32"/>
     </row>
     <row r="5" spans="1:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
     </row>
-    <row r="6" spans="1:16" s="37" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:16" s="33" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:16" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
@@ -1325,7 +1332,7 @@
       <c r="J7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="45" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -1345,163 +1352,165 @@
       </c>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="14"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="40"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="36"/>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="42"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="38"/>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="42"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="38"/>
     </row>
     <row r="12" spans="1:16" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="17" t="s">
+      <c r="A12" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="17" t="s">
+      <c r="I12" s="44"/>
+      <c r="J12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="44" t="s">
+      <c r="K12" s="43"/>
+      <c r="L12" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="20"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="17"/>
     </row>
     <row r="13" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
     </row>
     <row r="14" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
     </row>
     <row r="15" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
     </row>
     <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="16"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>

--- a/YuziApi/yuziapi/template/头程账单模板.xlsx
+++ b/YuziApi/yuziapi/template/头程账单模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zhaoyu\zhaoyuCode\YuZiApi\YuziApi\yuziapi\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4D8563-D9C7-4666-B574-F1BD15C3F182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D20B0B-3EB2-46FD-B378-A586F954F117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{8587944C-2598-40F2-989B-4827AB14D7EB}"/>
   </bookViews>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>本期合计额:</t>
   </si>
   <si>
     <t>人民币:</t>
@@ -148,6 +145,10 @@
   </si>
   <si>
     <t>跟进客服：</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>本期合计额</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -596,6 +597,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1170,7 +1174,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:P5"/>
+      <selection activeCell="A13" sqref="A13:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1196,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -1235,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -1257,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -1265,12 +1269,12 @@
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
       <c r="H4" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L4" s="31"/>
       <c r="M4" s="31"/>
@@ -1283,7 +1287,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -1333,7 +1337,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>14</v>
@@ -1425,7 +1429,7 @@
     </row>
     <row r="12" spans="1:16" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="41"/>
       <c r="C12" s="16"/>
@@ -1433,16 +1437,16 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="15" t="s">
-        <v>19</v>
+      <c r="H12" s="46" t="s">
+        <v>31</v>
       </c>
       <c r="I12" s="44"/>
       <c r="J12" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" s="43"/>
       <c r="L12" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
@@ -1451,7 +1455,7 @@
     </row>
     <row r="13" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -1471,7 +1475,7 @@
     </row>
     <row r="14" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -1491,7 +1495,7 @@
     </row>
     <row r="15" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>

--- a/YuziApi/yuziapi/template/头程账单模板.xlsx
+++ b/YuziApi/yuziapi/template/头程账单模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zhaoyu\zhaoyuCode\YuZiApi\YuziApi\yuziapi\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D20B0B-3EB2-46FD-B378-A586F954F117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CF674F-EBC2-4AEB-A812-BE80F5706EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{8587944C-2598-40F2-989B-4827AB14D7EB}"/>
   </bookViews>
@@ -514,6 +514,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -579,27 +600,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1173,8 +1173,8 @@
   </sheetPr>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:P13"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1195,116 +1195,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
     </row>
     <row r="2" spans="1:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
     </row>
     <row r="3" spans="1:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
     </row>
     <row r="4" spans="1:16" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30" t="s">
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="32"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="39"/>
     </row>
     <row r="5" spans="1:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
     </row>
-    <row r="6" spans="1:16" s="33" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:16" s="40" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:16" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
@@ -1336,7 +1336,7 @@
       <c r="J7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="45" t="s">
+      <c r="K7" s="23" t="s">
         <v>26</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -1374,78 +1374,78 @@
       <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="36"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="43"/>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="38"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="45"/>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="38"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="45"/>
     </row>
     <row r="12" spans="1:16" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="41"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="44"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="43"/>
-      <c r="L12" s="42" t="s">
+      <c r="K12" s="21"/>
+      <c r="L12" s="20" t="s">
         <v>29</v>
       </c>
       <c r="M12" s="16"/>
@@ -1454,64 +1454,64 @@
       <c r="P12" s="17"/>
     </row>
     <row r="13" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
     </row>
     <row r="14" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
     </row>
     <row r="15" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
     </row>
     <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G16" s="14"/>
